--- a/Spielweise in R (Level 3)/08_module_steuerung_veg_ent_kraut_pflanzen/wachstum_gurke.xlsx
+++ b/Spielweise in R (Level 3)/08_module_steuerung_veg_ent_kraut_pflanzen/wachstum_gurke.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nils\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokruppa\Documents\GitHub\teaching\Spielweise in R (Level 3)\08_module_steuerung_veg_ent_kraut_pflanzen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCECB027-8EA0-4003-9ABD-7D0D6FDE95F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4249FD2-FE8D-4BA1-AA35-840AF6125526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{EDD9D223-2042-48A9-BBB0-4AC1666777D8}"/>
+    <workbookView xWindow="1152" yWindow="696" windowWidth="26724" windowHeight="14952" xr2:uid="{EDD9D223-2042-48A9-BBB0-4AC1666777D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -218,7 +218,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -538,17 +538,19 @@
   <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V32" sqref="V32"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="8"/>
-    <col min="2" max="2" width="17.5703125" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="11.44140625" style="8"/>
+    <col min="2" max="2" width="17.5546875" style="6" customWidth="1"/>
+    <col min="3" max="19" width="11.44140625" style="6"/>
+    <col min="20" max="20" width="13.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -610,7 +612,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -666,7 +668,7 @@
         <v>533.6</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -722,7 +724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -778,7 +780,7 @@
         <v>604.79999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -834,7 +836,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -890,7 +892,7 @@
         <v>478.7</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -946,7 +948,7 @@
         <v>291.39999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -1002,7 +1004,7 @@
         <v>533.6</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -1058,7 +1060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>3</v>
       </c>
@@ -1114,7 +1116,7 @@
         <v>604.79999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>4</v>
       </c>
@@ -1170,7 +1172,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>5</v>
       </c>
@@ -1226,7 +1228,7 @@
         <v>478.7</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>6</v>
       </c>
@@ -1282,9 +1284,9 @@
         <v>291.39999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>19</v>
@@ -1344,9 +1346,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>19</v>
@@ -1400,7 +1402,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>3</v>
       </c>
@@ -1462,7 +1464,7 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>4</v>
       </c>
@@ -1518,7 +1520,7 @@
         <v>86.4</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>5</v>
       </c>
@@ -1580,7 +1582,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>6</v>
       </c>
@@ -1636,7 +1638,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>1</v>
       </c>
@@ -1698,7 +1700,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>2</v>
       </c>
@@ -1754,7 +1756,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>3</v>
       </c>
@@ -1816,7 +1818,7 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>4</v>
       </c>
@@ -1872,7 +1874,7 @@
         <v>86.4</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>5</v>
       </c>
@@ -1934,7 +1936,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>6</v>
       </c>
@@ -1990,7 +1992,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>1</v>
       </c>
@@ -2052,7 +2054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>2</v>
       </c>
@@ -2114,7 +2116,7 @@
         <v>76.099999999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>3</v>
       </c>
@@ -2170,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>4</v>
       </c>
@@ -2226,7 +2228,7 @@
         <v>181.5</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>5</v>
       </c>
@@ -2282,7 +2284,7 @@
         <v>212.1</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>6</v>
       </c>
@@ -2338,7 +2340,7 @@
         <v>206.9</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>1</v>
       </c>
@@ -2400,7 +2402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>2</v>
       </c>
@@ -2462,7 +2464,7 @@
         <v>76.099999999999994</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>3</v>
       </c>
@@ -2518,7 +2520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>4</v>
       </c>
@@ -2574,7 +2576,7 @@
         <v>181.5</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>5</v>
       </c>
@@ -2630,7 +2632,7 @@
         <v>212.1</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>6</v>
       </c>
@@ -2686,7 +2688,7 @@
         <v>206.9</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>25</v>
       </c>
